--- a/rlookup.xlsx
+++ b/rlookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A048069-DEDA-48EF-A032-9DE138D0D759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A6B29-9B6C-4E16-AC8E-196ABFC3D09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D10BB65-BFDE-480B-B93D-C88A8919D002}"/>
   </bookViews>
@@ -16,9 +16,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="col_result">Table1[#Headers]</definedName>
     <definedName name="column_cond">(COLUMN(Table1[#Headers])-COLUMN(Sheet1!$C$5))</definedName>
-    <definedName name="column_k">COLUMNS(Sheet1!$E$5:XES$5)</definedName>
+    <definedName name="column_k_col">COLUMNS(Sheet1!$D$5:XEP$5)</definedName>
     <definedName name="condition">(Table1[]=target_text)</definedName>
+    <definedName name="row_cond">ROW(Table1[ref])-ROW(Sheet1!$D$5)</definedName>
+    <definedName name="row_k">ROWS(Sheet1!$D$5:$D1048576)</definedName>
+    <definedName name="row_result">Table1[ref]</definedName>
     <definedName name="target_text">Sheet1!$K$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>ref</t>
   </si>
@@ -143,9 +147,6 @@
     <t>column_k</t>
   </si>
   <si>
-    <t>=COLUMNS($E$5:E$5)</t>
-  </si>
-  <si>
     <t>row_val</t>
   </si>
   <si>
@@ -156,6 +157,45 @@
   </si>
   <si>
     <t>cr3</t>
+  </si>
+  <si>
+    <t>col_result</t>
+  </si>
+  <si>
+    <t>=Table1[#Headers]</t>
+  </si>
+  <si>
+    <t>=COLUMNS($d$5:d$5)</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>row_result</t>
+  </si>
+  <si>
+    <t>=Table1[ref]</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> same as that of look-up-column case</t>
+  </si>
+  <si>
+    <t>row_cond</t>
+  </si>
+  <si>
+    <t>row_k</t>
+  </si>
+  <si>
+    <t>=ROWS($D$5:D$5)</t>
+  </si>
+  <si>
+    <t>=ROW(Table1[ref])-ROW($D$5)</t>
   </si>
 </sst>
 </file>
@@ -186,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,13 +292,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C459B87-1525-43D2-AC13-E1D7E004B959}">
-  <dimension ref="D1:S12"/>
+  <dimension ref="D1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +664,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M1" t="s">
         <v>20</v>
       </c>
@@ -637,18 +690,18 @@
         <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
@@ -670,14 +723,14 @@
       <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
+      <c r="K5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="4:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -697,23 +750,26 @@
         <f t="array" ref="O6">INDEX(Table1[#Headers],,
 _xlfn.AGGREGATE(14,4,(Table1[]=target_text)*(COLUMN(Table1[#Headers])-COLUMN($C$5)),
 COLUMNS($E$5:E$5)))</f>
-        <v>col3</v>
+        <v>col2</v>
       </c>
       <c r="P6" s="5" cm="1">
-        <f t="array" ref="P6">INDEX(Table1[ref],
-_xlfn.AGGREGATE(14,4,(Table1[]=target_text)*(ROW($D$5:$D$10)-ROW($D$4)),
-ROWS($D$5:$D5)
+        <f t="array" ref="P6">INDEX(row_result,
+_xlfn.AGGREGATE(14,4,(condition)*(row_cond),
+row_k
 ))</f>
         <v>4</v>
       </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
       <c r="S6" s="2" t="str" cm="1">
-        <f t="array" ref="S6">INDEX(Table1[#Headers],,
+        <f t="array" ref="S6">INDEX(col_result,,
 _xlfn.AGGREGATE(14,4,(condition)*(column_cond),
-COLUMNS($E$5:E$5)))</f>
-        <v>col3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+column_k_col))</f>
+        <v>col2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>2</v>
       </c>
@@ -739,8 +795,12 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="4:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>3</v>
       </c>
@@ -770,7 +830,7 @@
 _xlfn.AGGREGATE(14,4,(Table1[]=target_text)*(COLUMN(Table1[#Headers])-COLUMN($C$5)),
 COLUMNS($E$5:E$5)
 ))</f>
-        <v>col3</v>
+        <v>col2</v>
       </c>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
@@ -819,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
@@ -851,6 +911,38 @@
       </c>
       <c r="M12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
